--- a/ISTQB cards DB.xlsx
+++ b/ISTQB cards DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Mydocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Mydocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="771">
   <si>
     <t>1. </t>
   </si>
@@ -2495,9 +2495,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2506,6 +2503,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2525,8 +2525,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2886,13 +2886,13 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2906,11 +2906,11 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2959,7 +2959,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="14"/>
@@ -2968,7 +2968,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="14"/>
@@ -2977,7 +2977,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="14"/>
@@ -2986,7 +2986,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="14"/>
@@ -2995,7 +2995,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="14"/>
@@ -3004,7 +3004,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="14"/>
@@ -3013,17 +3013,17 @@
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -3455,11 +3455,11 @@
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -3547,7 +3547,7 @@
         <v>154</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E60" s="14"/>
@@ -3556,7 +3556,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="11"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E61" s="14"/>
@@ -3565,7 +3565,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E62" s="14"/>
@@ -3574,7 +3574,7 @@
       <c r="A63" s="9"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E63" s="14"/>
@@ -3639,7 +3639,7 @@
         <v>172</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E68" s="14"/>
@@ -3648,7 +3648,7 @@
       <c r="A69" s="9"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E69" s="14"/>
@@ -3657,7 +3657,7 @@
       <c r="A70" s="9"/>
       <c r="B70" s="11"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>175</v>
       </c>
       <c r="E70" s="14"/>
@@ -3666,7 +3666,7 @@
       <c r="A71" s="9"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E71" s="14"/>
@@ -3675,7 +3675,7 @@
       <c r="A72" s="9"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13"/>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E72" s="14"/>
@@ -3684,7 +3684,7 @@
       <c r="A73" s="9"/>
       <c r="B73" s="12"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E73" s="14"/>
@@ -3710,25 +3710,25 @@
         <v>183</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="14"/>
@@ -3737,7 +3737,7 @@
       <c r="A78" s="9"/>
       <c r="B78" s="12"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E78" s="14"/>
@@ -3802,7 +3802,7 @@
         <v>201</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E83" s="14"/>
@@ -3811,16 +3811,16 @@
       <c r="A84" s="9"/>
       <c r="B84" s="11"/>
       <c r="C84" s="13"/>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>203</v>
       </c>
       <c r="E84" s="14"/>
     </row>
-    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="11"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E85" s="14"/>
@@ -3829,7 +3829,7 @@
       <c r="A86" s="9"/>
       <c r="B86" s="11"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E86" s="14"/>
@@ -3838,7 +3838,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E87" s="14"/>
@@ -3955,7 +3955,7 @@
         <v>232</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>233</v>
       </c>
       <c r="E96" s="14"/>
@@ -3964,7 +3964,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="11"/>
       <c r="C97" s="13"/>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E97" s="14"/>
@@ -3973,7 +3973,7 @@
       <c r="A98" s="9"/>
       <c r="B98" s="11"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E98" s="14"/>
@@ -3982,7 +3982,7 @@
       <c r="A99" s="9"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>236</v>
       </c>
       <c r="E99" s="14"/>
@@ -4047,7 +4047,7 @@
         <v>249</v>
       </c>
       <c r="C104" s="13"/>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E104" s="14"/>
@@ -4056,7 +4056,7 @@
       <c r="A105" s="9"/>
       <c r="B105" s="11"/>
       <c r="C105" s="13"/>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E105" s="14"/>
@@ -4065,7 +4065,7 @@
       <c r="A106" s="9"/>
       <c r="B106" s="11"/>
       <c r="C106" s="13"/>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E106" s="14"/>
@@ -4074,7 +4074,7 @@
       <c r="A107" s="9"/>
       <c r="B107" s="11"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>236</v>
       </c>
       <c r="E107" s="14"/>
@@ -4083,7 +4083,7 @@
       <c r="A108" s="9"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E108" s="14"/>
@@ -4096,7 +4096,7 @@
         <v>255</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E109" s="14"/>
@@ -4105,7 +4105,7 @@
       <c r="A110" s="9"/>
       <c r="B110" s="11"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>257</v>
       </c>
       <c r="E110" s="14"/>
@@ -4114,7 +4114,7 @@
       <c r="A111" s="9"/>
       <c r="B111" s="12"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>258</v>
       </c>
       <c r="E111" s="14"/>
@@ -4127,7 +4127,7 @@
         <v>260</v>
       </c>
       <c r="C112" s="13"/>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E112" s="14"/>
@@ -4136,7 +4136,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="11"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>262</v>
       </c>
       <c r="E113" s="14"/>
@@ -4145,16 +4145,16 @@
       <c r="A114" s="9"/>
       <c r="B114" s="11"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E114" s="14"/>
     </row>
-    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="11"/>
       <c r="C115" s="13"/>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>264</v>
       </c>
       <c r="E115" s="14"/>
@@ -4163,7 +4163,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="12"/>
       <c r="C116" s="13"/>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>265</v>
       </c>
       <c r="E116" s="14"/>
@@ -4176,7 +4176,7 @@
         <v>267</v>
       </c>
       <c r="C117" s="13"/>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>268</v>
       </c>
       <c r="E117" s="14"/>
@@ -4185,7 +4185,7 @@
       <c r="A118" s="9"/>
       <c r="B118" s="11"/>
       <c r="C118" s="13"/>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>269</v>
       </c>
       <c r="E118" s="14"/>
@@ -4194,7 +4194,7 @@
       <c r="A119" s="9"/>
       <c r="B119" s="11"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>270</v>
       </c>
       <c r="E119" s="14"/>
@@ -4203,7 +4203,7 @@
       <c r="A120" s="9"/>
       <c r="B120" s="12"/>
       <c r="C120" s="13"/>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="7" t="s">
         <v>271</v>
       </c>
       <c r="E120" s="14"/>
@@ -4216,7 +4216,7 @@
         <v>273</v>
       </c>
       <c r="C121" s="13"/>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E121" s="14"/>
@@ -4225,7 +4225,7 @@
       <c r="A122" s="9"/>
       <c r="B122" s="12"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E122" s="14"/>
@@ -4257,11 +4257,11 @@
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -4531,25 +4531,25 @@
         <v>342</v>
       </c>
       <c r="C146" s="13"/>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>343</v>
       </c>
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="11"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>344</v>
       </c>
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="11"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>345</v>
       </c>
       <c r="E148" s="14"/>
@@ -4558,7 +4558,7 @@
       <c r="A149" s="9"/>
       <c r="B149" s="11"/>
       <c r="C149" s="13"/>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>346</v>
       </c>
       <c r="E149" s="14"/>
@@ -4567,7 +4567,7 @@
       <c r="A150" s="9"/>
       <c r="B150" s="11"/>
       <c r="C150" s="13"/>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>347</v>
       </c>
       <c r="E150" s="14"/>
@@ -4576,7 +4576,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="12"/>
       <c r="C151" s="13"/>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="7" t="s">
         <v>348</v>
       </c>
       <c r="E151" s="14"/>
@@ -4589,34 +4589,34 @@
         <v>350</v>
       </c>
       <c r="C152" s="13"/>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>351</v>
       </c>
       <c r="E152" s="14"/>
     </row>
-    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="11"/>
       <c r="C153" s="13"/>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="11"/>
       <c r="C154" s="13"/>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>353</v>
       </c>
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="11"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E155" s="14"/>
@@ -4625,7 +4625,7 @@
       <c r="A156" s="9"/>
       <c r="B156" s="12"/>
       <c r="C156" s="13"/>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="7" t="s">
         <v>355</v>
       </c>
       <c r="E156" s="14"/>
@@ -4690,7 +4690,7 @@
         <v>369</v>
       </c>
       <c r="C161" s="13"/>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>370</v>
       </c>
       <c r="E161" s="14"/>
@@ -4699,7 +4699,7 @@
       <c r="A162" s="9"/>
       <c r="B162" s="11"/>
       <c r="C162" s="13"/>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="6" t="s">
         <v>371</v>
       </c>
       <c r="E162" s="14"/>
@@ -4708,7 +4708,7 @@
       <c r="A163" s="9"/>
       <c r="B163" s="11"/>
       <c r="C163" s="13"/>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="6" t="s">
         <v>372</v>
       </c>
       <c r="E163" s="14"/>
@@ -4717,7 +4717,7 @@
       <c r="A164" s="9"/>
       <c r="B164" s="11"/>
       <c r="C164" s="13"/>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="6" t="s">
         <v>373</v>
       </c>
       <c r="E164" s="14"/>
@@ -4726,7 +4726,7 @@
       <c r="A165" s="9"/>
       <c r="B165" s="11"/>
       <c r="C165" s="13"/>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="6" t="s">
         <v>374</v>
       </c>
       <c r="E165" s="14"/>
@@ -4735,7 +4735,7 @@
       <c r="A166" s="9"/>
       <c r="B166" s="11"/>
       <c r="C166" s="13"/>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="6" t="s">
         <v>375</v>
       </c>
       <c r="E166" s="14"/>
@@ -4744,7 +4744,7 @@
       <c r="A167" s="9"/>
       <c r="B167" s="12"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="7" t="s">
         <v>376</v>
       </c>
       <c r="E167" s="14"/>
@@ -4757,7 +4757,7 @@
         <v>378</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E168" s="14"/>
@@ -4766,7 +4766,7 @@
       <c r="A169" s="9"/>
       <c r="B169" s="11"/>
       <c r="C169" s="13"/>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="6" t="s">
         <v>380</v>
       </c>
       <c r="E169" s="14"/>
@@ -4775,7 +4775,7 @@
       <c r="A170" s="9"/>
       <c r="B170" s="11"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>381</v>
       </c>
       <c r="E170" s="14"/>
@@ -4784,7 +4784,7 @@
       <c r="A171" s="9"/>
       <c r="B171" s="11"/>
       <c r="C171" s="13"/>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="6" t="s">
         <v>382</v>
       </c>
       <c r="E171" s="14"/>
@@ -4793,7 +4793,7 @@
       <c r="A172" s="9"/>
       <c r="B172" s="11"/>
       <c r="C172" s="13"/>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="6" t="s">
         <v>383</v>
       </c>
       <c r="E172" s="14"/>
@@ -4802,7 +4802,7 @@
       <c r="A173" s="9"/>
       <c r="B173" s="12"/>
       <c r="C173" s="13"/>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="7" t="s">
         <v>384</v>
       </c>
       <c r="E173" s="14"/>
@@ -4932,7 +4932,7 @@
         <v>412</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E183" s="14"/>
@@ -4941,7 +4941,7 @@
       <c r="A184" s="9"/>
       <c r="B184" s="12"/>
       <c r="C184" s="13"/>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="7" t="s">
         <v>414</v>
       </c>
       <c r="E184" s="14"/>
@@ -5058,7 +5058,7 @@
         <v>440</v>
       </c>
       <c r="C193" s="13"/>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>441</v>
       </c>
       <c r="E193" s="14"/>
@@ -5067,7 +5067,7 @@
       <c r="A194" s="9"/>
       <c r="B194" s="11"/>
       <c r="C194" s="13"/>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="6" t="s">
         <v>442</v>
       </c>
       <c r="E194" s="14"/>
@@ -5076,7 +5076,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="11"/>
       <c r="C195" s="13"/>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="6" t="s">
         <v>443</v>
       </c>
       <c r="E195" s="14"/>
@@ -5085,7 +5085,7 @@
       <c r="A196" s="9"/>
       <c r="B196" s="12"/>
       <c r="C196" s="13"/>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="7" t="s">
         <v>444</v>
       </c>
       <c r="E196" s="14"/>
@@ -5098,7 +5098,7 @@
         <v>446</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>447</v>
       </c>
       <c r="E197" s="14"/>
@@ -5107,7 +5107,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="12"/>
       <c r="C198" s="13"/>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="7" t="s">
         <v>448</v>
       </c>
       <c r="E198" s="14"/>
@@ -5120,7 +5120,7 @@
         <v>450</v>
       </c>
       <c r="C199" s="13"/>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>451</v>
       </c>
       <c r="E199" s="14"/>
@@ -5129,7 +5129,7 @@
       <c r="A200" s="9"/>
       <c r="B200" s="11"/>
       <c r="C200" s="13"/>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>452</v>
       </c>
       <c r="E200" s="14"/>
@@ -5138,7 +5138,7 @@
       <c r="A201" s="9"/>
       <c r="B201" s="11"/>
       <c r="C201" s="13"/>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="6" t="s">
         <v>453</v>
       </c>
       <c r="E201" s="14"/>
@@ -5147,7 +5147,7 @@
       <c r="A202" s="9"/>
       <c r="B202" s="11"/>
       <c r="C202" s="13"/>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="6" t="s">
         <v>454</v>
       </c>
       <c r="E202" s="14"/>
@@ -5156,7 +5156,7 @@
       <c r="A203" s="9"/>
       <c r="B203" s="12"/>
       <c r="C203" s="13"/>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="7" t="s">
         <v>455</v>
       </c>
       <c r="E203" s="14"/>
@@ -5169,7 +5169,7 @@
         <v>457</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="5" t="s">
         <v>458</v>
       </c>
       <c r="E204" s="14"/>
@@ -5178,7 +5178,7 @@
       <c r="A205" s="9"/>
       <c r="B205" s="11"/>
       <c r="C205" s="13"/>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="6" t="s">
         <v>459</v>
       </c>
       <c r="E205" s="14"/>
@@ -5187,7 +5187,7 @@
       <c r="A206" s="9"/>
       <c r="B206" s="12"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="7" t="s">
         <v>460</v>
       </c>
       <c r="E206" s="14"/>
@@ -5213,16 +5213,16 @@
         <v>104</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="5" t="s">
         <v>465</v>
       </c>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="11"/>
       <c r="C209" s="13"/>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="6" t="s">
         <v>466</v>
       </c>
       <c r="E209" s="14"/>
@@ -5231,34 +5231,34 @@
       <c r="A210" s="9"/>
       <c r="B210" s="11"/>
       <c r="C210" s="13"/>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="6" t="s">
         <v>467</v>
       </c>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="11"/>
       <c r="C211" s="13"/>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>468</v>
       </c>
       <c r="E211" s="14"/>
     </row>
-    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="11"/>
       <c r="C212" s="13"/>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>469</v>
       </c>
       <c r="E212" s="14"/>
     </row>
-    <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="11"/>
       <c r="C213" s="13"/>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="6" t="s">
         <v>470</v>
       </c>
       <c r="E213" s="14"/>
@@ -5267,16 +5267,16 @@
       <c r="A214" s="9"/>
       <c r="B214" s="11"/>
       <c r="C214" s="13"/>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="11"/>
       <c r="C215" s="13"/>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="6" t="s">
         <v>472</v>
       </c>
       <c r="E215" s="14"/>
@@ -5285,7 +5285,7 @@
       <c r="A216" s="9"/>
       <c r="B216" s="11"/>
       <c r="C216" s="13"/>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="6" t="s">
         <v>473</v>
       </c>
       <c r="E216" s="14"/>
@@ -5294,7 +5294,7 @@
       <c r="A217" s="9"/>
       <c r="B217" s="12"/>
       <c r="C217" s="13"/>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="7" t="s">
         <v>474</v>
       </c>
       <c r="E217" s="14"/>
@@ -5307,7 +5307,7 @@
         <v>476</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>477</v>
       </c>
       <c r="E218" s="14"/>
@@ -5316,34 +5316,34 @@
       <c r="A219" s="9"/>
       <c r="B219" s="11"/>
       <c r="C219" s="13"/>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="6" t="s">
         <v>478</v>
       </c>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="11"/>
       <c r="C220" s="13"/>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="6" t="s">
         <v>479</v>
       </c>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="11"/>
       <c r="C221" s="13"/>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="6" t="s">
         <v>480</v>
       </c>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="11"/>
       <c r="C222" s="13"/>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="6" t="s">
         <v>481</v>
       </c>
       <c r="E222" s="14"/>
@@ -5352,7 +5352,7 @@
       <c r="A223" s="9"/>
       <c r="B223" s="11"/>
       <c r="C223" s="13"/>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E223" s="14"/>
@@ -5361,7 +5361,7 @@
       <c r="A224" s="9"/>
       <c r="B224" s="11"/>
       <c r="C224" s="13"/>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="6" t="s">
         <v>483</v>
       </c>
       <c r="E224" s="14"/>
@@ -5370,7 +5370,7 @@
       <c r="A225" s="9"/>
       <c r="B225" s="11"/>
       <c r="C225" s="13"/>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="6" t="s">
         <v>484</v>
       </c>
       <c r="E225" s="14"/>
@@ -5379,7 +5379,7 @@
       <c r="A226" s="9"/>
       <c r="B226" s="11"/>
       <c r="C226" s="13"/>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="6" t="s">
         <v>485</v>
       </c>
       <c r="E226" s="14"/>
@@ -5388,43 +5388,43 @@
       <c r="A227" s="9"/>
       <c r="B227" s="11"/>
       <c r="C227" s="13"/>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="6" t="s">
         <v>486</v>
       </c>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="11"/>
       <c r="C228" s="13"/>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="6" t="s">
         <v>487</v>
       </c>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="11"/>
       <c r="C229" s="13"/>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="6" t="s">
         <v>488</v>
       </c>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="11"/>
       <c r="C230" s="13"/>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="6" t="s">
         <v>489</v>
       </c>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="11"/>
       <c r="C231" s="13"/>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="6" t="s">
         <v>490</v>
       </c>
       <c r="E231" s="14"/>
@@ -5433,7 +5433,7 @@
       <c r="A232" s="9"/>
       <c r="B232" s="12"/>
       <c r="C232" s="13"/>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="7" t="s">
         <v>491</v>
       </c>
       <c r="E232" s="14"/>
@@ -5446,25 +5446,25 @@
         <v>493</v>
       </c>
       <c r="C233" s="13"/>
-      <c r="D233" s="6" t="s">
+      <c r="D233" s="5" t="s">
         <v>494</v>
       </c>
       <c r="E233" s="14"/>
     </row>
-    <row r="234" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="11"/>
       <c r="C234" s="13"/>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="6" t="s">
         <v>495</v>
       </c>
       <c r="E234" s="14"/>
     </row>
-    <row r="235" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="11"/>
       <c r="C235" s="13"/>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="6" t="s">
         <v>496</v>
       </c>
       <c r="E235" s="14"/>
@@ -5473,7 +5473,7 @@
       <c r="A236" s="9"/>
       <c r="B236" s="11"/>
       <c r="C236" s="13"/>
-      <c r="D236" s="7" t="s">
+      <c r="D236" s="6" t="s">
         <v>497</v>
       </c>
       <c r="E236" s="14"/>
@@ -5482,7 +5482,7 @@
       <c r="A237" s="9"/>
       <c r="B237" s="12"/>
       <c r="C237" s="13"/>
-      <c r="D237" s="8" t="s">
+      <c r="D237" s="7" t="s">
         <v>498</v>
       </c>
       <c r="E237" s="14"/>
@@ -5495,7 +5495,7 @@
         <v>500</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="6" t="s">
+      <c r="D238" s="5" t="s">
         <v>501</v>
       </c>
       <c r="E238" s="14"/>
@@ -5504,25 +5504,25 @@
       <c r="A239" s="9"/>
       <c r="B239" s="11"/>
       <c r="C239" s="13"/>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="6" t="s">
         <v>502</v>
       </c>
       <c r="E239" s="14"/>
     </row>
-    <row r="240" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="11"/>
       <c r="C240" s="13"/>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="6" t="s">
         <v>503</v>
       </c>
       <c r="E240" s="14"/>
     </row>
-    <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="11"/>
       <c r="C241" s="13"/>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E241" s="14"/>
@@ -5531,7 +5531,7 @@
       <c r="A242" s="9"/>
       <c r="B242" s="11"/>
       <c r="C242" s="13"/>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="6" t="s">
         <v>505</v>
       </c>
       <c r="E242" s="14"/>
@@ -5540,7 +5540,7 @@
       <c r="A243" s="9"/>
       <c r="B243" s="12"/>
       <c r="C243" s="13"/>
-      <c r="D243" s="8" t="s">
+      <c r="D243" s="7" t="s">
         <v>506</v>
       </c>
       <c r="E243" s="14"/>
@@ -5553,16 +5553,16 @@
         <v>508</v>
       </c>
       <c r="C244" s="13"/>
-      <c r="D244" s="6" t="s">
+      <c r="D244" s="5" t="s">
         <v>509</v>
       </c>
       <c r="E244" s="14"/>
     </row>
-    <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="11"/>
       <c r="C245" s="13"/>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="6" t="s">
         <v>510</v>
       </c>
       <c r="E245" s="14"/>
@@ -5571,7 +5571,7 @@
       <c r="A246" s="9"/>
       <c r="B246" s="11"/>
       <c r="C246" s="13"/>
-      <c r="D246" s="7" t="s">
+      <c r="D246" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E246" s="14"/>
@@ -5580,16 +5580,16 @@
       <c r="A247" s="9"/>
       <c r="B247" s="11"/>
       <c r="C247" s="13"/>
-      <c r="D247" s="7" t="s">
+      <c r="D247" s="6" t="s">
         <v>512</v>
       </c>
       <c r="E247" s="14"/>
     </row>
-    <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="11"/>
       <c r="C248" s="13"/>
-      <c r="D248" s="7" t="s">
+      <c r="D248" s="6" t="s">
         <v>513</v>
       </c>
       <c r="E248" s="14"/>
@@ -5598,7 +5598,7 @@
       <c r="A249" s="9"/>
       <c r="B249" s="12"/>
       <c r="C249" s="13"/>
-      <c r="D249" s="8" t="s">
+      <c r="D249" s="7" t="s">
         <v>514</v>
       </c>
       <c r="E249" s="14"/>
@@ -5611,7 +5611,7 @@
         <v>516</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="6" t="s">
+      <c r="D250" s="5" t="s">
         <v>517</v>
       </c>
       <c r="E250" s="14"/>
@@ -5620,16 +5620,16 @@
       <c r="A251" s="9"/>
       <c r="B251" s="11"/>
       <c r="C251" s="13"/>
-      <c r="D251" s="7" t="s">
+      <c r="D251" s="6" t="s">
         <v>518</v>
       </c>
       <c r="E251" s="14"/>
     </row>
-    <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="11"/>
       <c r="C252" s="13"/>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="6" t="s">
         <v>519</v>
       </c>
       <c r="E252" s="14"/>
@@ -5638,7 +5638,7 @@
       <c r="A253" s="9"/>
       <c r="B253" s="12"/>
       <c r="C253" s="13"/>
-      <c r="D253" s="8" t="s">
+      <c r="D253" s="7" t="s">
         <v>520</v>
       </c>
       <c r="E253" s="14"/>
@@ -5794,7 +5794,7 @@
         <v>554</v>
       </c>
       <c r="C265" s="13"/>
-      <c r="D265" s="6" t="s">
+      <c r="D265" s="5" t="s">
         <v>555</v>
       </c>
       <c r="E265" s="14"/>
@@ -5803,16 +5803,16 @@
       <c r="A266" s="9"/>
       <c r="B266" s="11"/>
       <c r="C266" s="13"/>
-      <c r="D266" s="7" t="s">
+      <c r="D266" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E266" s="14"/>
     </row>
-    <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="11"/>
       <c r="C267" s="13"/>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="6" t="s">
         <v>557</v>
       </c>
       <c r="E267" s="14"/>
@@ -5821,7 +5821,7 @@
       <c r="A268" s="9"/>
       <c r="B268" s="12"/>
       <c r="C268" s="13"/>
-      <c r="D268" s="8" t="s">
+      <c r="D268" s="7" t="s">
         <v>558</v>
       </c>
       <c r="E268" s="14"/>
@@ -5834,7 +5834,7 @@
         <v>560</v>
       </c>
       <c r="C269" s="13"/>
-      <c r="D269" s="6" t="s">
+      <c r="D269" s="5" t="s">
         <v>561</v>
       </c>
       <c r="E269" s="14"/>
@@ -5843,7 +5843,7 @@
       <c r="A270" s="9"/>
       <c r="B270" s="11"/>
       <c r="C270" s="13"/>
-      <c r="D270" s="7" t="s">
+      <c r="D270" s="6" t="s">
         <v>562</v>
       </c>
       <c r="E270" s="14"/>
@@ -5852,7 +5852,7 @@
       <c r="A271" s="9"/>
       <c r="B271" s="12"/>
       <c r="C271" s="13"/>
-      <c r="D271" s="8" t="s">
+      <c r="D271" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E271" s="14"/>
@@ -5865,7 +5865,7 @@
         <v>565</v>
       </c>
       <c r="C272" s="13"/>
-      <c r="D272" s="6" t="s">
+      <c r="D272" s="5" t="s">
         <v>566</v>
       </c>
       <c r="E272" s="14"/>
@@ -5874,7 +5874,7 @@
       <c r="A273" s="9"/>
       <c r="B273" s="12"/>
       <c r="C273" s="13"/>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="7" t="s">
         <v>567</v>
       </c>
       <c r="E273" s="14"/>
@@ -5887,7 +5887,7 @@
         <v>569</v>
       </c>
       <c r="C274" s="13"/>
-      <c r="D274" s="6" t="s">
+      <c r="D274" s="5" t="s">
         <v>570</v>
       </c>
       <c r="E274" s="14"/>
@@ -5896,7 +5896,7 @@
       <c r="A275" s="9"/>
       <c r="B275" s="11"/>
       <c r="C275" s="13"/>
-      <c r="D275" s="7" t="s">
+      <c r="D275" s="6" t="s">
         <v>571</v>
       </c>
       <c r="E275" s="14"/>
@@ -5905,16 +5905,16 @@
       <c r="A276" s="9"/>
       <c r="B276" s="11"/>
       <c r="C276" s="13"/>
-      <c r="D276" s="7" t="s">
+      <c r="D276" s="6" t="s">
         <v>572</v>
       </c>
       <c r="E276" s="14"/>
     </row>
-    <row r="277" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="11"/>
       <c r="C277" s="13"/>
-      <c r="D277" s="7" t="s">
+      <c r="D277" s="6" t="s">
         <v>573</v>
       </c>
       <c r="E277" s="14"/>
@@ -5923,7 +5923,7 @@
       <c r="A278" s="9"/>
       <c r="B278" s="12"/>
       <c r="C278" s="13"/>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="7" t="s">
         <v>574</v>
       </c>
       <c r="E278" s="14"/>
@@ -5936,16 +5936,16 @@
         <v>576</v>
       </c>
       <c r="C279" s="13"/>
-      <c r="D279" s="6" t="s">
+      <c r="D279" s="5" t="s">
         <v>577</v>
       </c>
       <c r="E279" s="14"/>
     </row>
-    <row r="280" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="11"/>
       <c r="C280" s="13"/>
-      <c r="D280" s="7" t="s">
+      <c r="D280" s="6" t="s">
         <v>578</v>
       </c>
       <c r="E280" s="14"/>
@@ -5954,7 +5954,7 @@
       <c r="A281" s="9"/>
       <c r="B281" s="12"/>
       <c r="C281" s="13"/>
-      <c r="D281" s="8" t="s">
+      <c r="D281" s="7" t="s">
         <v>579</v>
       </c>
       <c r="E281" s="14"/>
@@ -5967,25 +5967,25 @@
         <v>581</v>
       </c>
       <c r="C282" s="13"/>
-      <c r="D282" s="6" t="s">
+      <c r="D282" s="5" t="s">
         <v>582</v>
       </c>
       <c r="E282" s="14"/>
     </row>
-    <row r="283" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="11"/>
       <c r="C283" s="13"/>
-      <c r="D283" s="7" t="s">
+      <c r="D283" s="6" t="s">
         <v>583</v>
       </c>
       <c r="E283" s="14"/>
     </row>
-    <row r="284" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="11"/>
       <c r="C284" s="13"/>
-      <c r="D284" s="7" t="s">
+      <c r="D284" s="6" t="s">
         <v>584</v>
       </c>
       <c r="E284" s="14"/>
@@ -5994,7 +5994,7 @@
       <c r="A285" s="9"/>
       <c r="B285" s="12"/>
       <c r="C285" s="13"/>
-      <c r="D285" s="8" t="s">
+      <c r="D285" s="7" t="s">
         <v>585</v>
       </c>
       <c r="E285" s="14"/>
@@ -6020,34 +6020,34 @@
         <v>590</v>
       </c>
       <c r="C287" s="13"/>
-      <c r="D287" s="6" t="s">
+      <c r="D287" s="5" t="s">
         <v>591</v>
       </c>
       <c r="E287" s="14"/>
     </row>
-    <row r="288" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="11"/>
       <c r="C288" s="13"/>
-      <c r="D288" s="7" t="s">
+      <c r="D288" s="6" t="s">
         <v>592</v>
       </c>
       <c r="E288" s="14"/>
     </row>
-    <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="11"/>
       <c r="C289" s="13"/>
-      <c r="D289" s="7" t="s">
+      <c r="D289" s="6" t="s">
         <v>593</v>
       </c>
       <c r="E289" s="14"/>
     </row>
-    <row r="290" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="11"/>
       <c r="C290" s="13"/>
-      <c r="D290" s="7" t="s">
+      <c r="D290" s="6" t="s">
         <v>594</v>
       </c>
       <c r="E290" s="14"/>
@@ -6056,7 +6056,7 @@
       <c r="A291" s="9"/>
       <c r="B291" s="12"/>
       <c r="C291" s="13"/>
-      <c r="D291" s="8" t="s">
+      <c r="D291" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E291" s="14"/>
@@ -6069,7 +6069,7 @@
         <v>597</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="6" t="s">
+      <c r="D292" s="5" t="s">
         <v>598</v>
       </c>
       <c r="E292" s="14"/>
@@ -6078,7 +6078,7 @@
       <c r="A293" s="9"/>
       <c r="B293" s="11"/>
       <c r="C293" s="13"/>
-      <c r="D293" s="7" t="s">
+      <c r="D293" s="6" t="s">
         <v>599</v>
       </c>
       <c r="E293" s="14"/>
@@ -6087,7 +6087,7 @@
       <c r="A294" s="9"/>
       <c r="B294" s="11"/>
       <c r="C294" s="13"/>
-      <c r="D294" s="7" t="s">
+      <c r="D294" s="6" t="s">
         <v>600</v>
       </c>
       <c r="E294" s="14"/>
@@ -6096,7 +6096,7 @@
       <c r="A295" s="9"/>
       <c r="B295" s="11"/>
       <c r="C295" s="13"/>
-      <c r="D295" s="7" t="s">
+      <c r="D295" s="6" t="s">
         <v>601</v>
       </c>
       <c r="E295" s="14"/>
@@ -6105,7 +6105,7 @@
       <c r="A296" s="9"/>
       <c r="B296" s="12"/>
       <c r="C296" s="13"/>
-      <c r="D296" s="8" t="s">
+      <c r="D296" s="7" t="s">
         <v>602</v>
       </c>
       <c r="E296" s="14"/>
@@ -6144,7 +6144,7 @@
         <v>610</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="6" t="s">
+      <c r="D299" s="5" t="s">
         <v>611</v>
       </c>
       <c r="E299" s="14"/>
@@ -6153,16 +6153,16 @@
       <c r="A300" s="9"/>
       <c r="B300" s="11"/>
       <c r="C300" s="13"/>
-      <c r="D300" s="7" t="s">
+      <c r="D300" s="6" t="s">
         <v>612</v>
       </c>
       <c r="E300" s="14"/>
     </row>
-    <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="11"/>
       <c r="C301" s="13"/>
-      <c r="D301" s="7" t="s">
+      <c r="D301" s="6" t="s">
         <v>613</v>
       </c>
       <c r="E301" s="14"/>
@@ -6171,7 +6171,7 @@
       <c r="A302" s="9"/>
       <c r="B302" s="12"/>
       <c r="C302" s="13"/>
-      <c r="D302" s="8" t="s">
+      <c r="D302" s="7" t="s">
         <v>614</v>
       </c>
       <c r="E302" s="14"/>
@@ -6379,25 +6379,25 @@
         <v>661</v>
       </c>
       <c r="C318" s="13"/>
-      <c r="D318" s="6" t="s">
+      <c r="D318" s="5" t="s">
         <v>662</v>
       </c>
       <c r="E318" s="14"/>
     </row>
-    <row r="319" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="11"/>
       <c r="C319" s="13"/>
-      <c r="D319" s="7" t="s">
+      <c r="D319" s="6" t="s">
         <v>663</v>
       </c>
       <c r="E319" s="14"/>
     </row>
-    <row r="320" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="11"/>
       <c r="C320" s="13"/>
-      <c r="D320" s="7" t="s">
+      <c r="D320" s="6" t="s">
         <v>664</v>
       </c>
       <c r="E320" s="14"/>
@@ -6406,7 +6406,7 @@
       <c r="A321" s="9"/>
       <c r="B321" s="12"/>
       <c r="C321" s="13"/>
-      <c r="D321" s="8" t="s">
+      <c r="D321" s="7" t="s">
         <v>665</v>
       </c>
       <c r="E321" s="14"/>
@@ -6679,7 +6679,7 @@
         <v>726</v>
       </c>
       <c r="C342" s="13"/>
-      <c r="D342" s="6" t="s">
+      <c r="D342" s="5" t="s">
         <v>727</v>
       </c>
       <c r="E342" s="14"/>
@@ -6688,7 +6688,7 @@
       <c r="A343" s="9"/>
       <c r="B343" s="11"/>
       <c r="C343" s="13"/>
-      <c r="D343" s="7" t="s">
+      <c r="D343" s="6" t="s">
         <v>728</v>
       </c>
       <c r="E343" s="14"/>
@@ -6697,7 +6697,7 @@
       <c r="A344" s="9"/>
       <c r="B344" s="11"/>
       <c r="C344" s="13"/>
-      <c r="D344" s="7" t="s">
+      <c r="D344" s="6" t="s">
         <v>729</v>
       </c>
       <c r="E344" s="14"/>
@@ -6706,7 +6706,7 @@
       <c r="A345" s="9"/>
       <c r="B345" s="11"/>
       <c r="C345" s="13"/>
-      <c r="D345" s="7" t="s">
+      <c r="D345" s="6" t="s">
         <v>730</v>
       </c>
       <c r="E345" s="14"/>
@@ -6715,7 +6715,7 @@
       <c r="A346" s="9"/>
       <c r="B346" s="12"/>
       <c r="C346" s="13"/>
-      <c r="D346" s="8" t="s">
+      <c r="D346" s="7" t="s">
         <v>731</v>
       </c>
       <c r="E346" s="14"/>
@@ -6736,66 +6736,83 @@
     <row r="348" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="B342:B346"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="E299:E302"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="C287:C291"/>
-    <mergeCell ref="E287:E291"/>
-    <mergeCell ref="A292:A296"/>
-    <mergeCell ref="B292:B296"/>
-    <mergeCell ref="C292:C296"/>
-    <mergeCell ref="E292:E296"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="E279:E281"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="A274:A278"/>
-    <mergeCell ref="B274:B278"/>
-    <mergeCell ref="C274:C278"/>
-    <mergeCell ref="E274:E278"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="E269:E271"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="E265:E268"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="A244:A249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="C244:C249"/>
-    <mergeCell ref="E244:E249"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="C233:C237"/>
-    <mergeCell ref="E233:E237"/>
-    <mergeCell ref="A238:A243"/>
-    <mergeCell ref="B238:B243"/>
-    <mergeCell ref="C238:C243"/>
-    <mergeCell ref="E238:E243"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="E146:E151"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="E183:E184"/>
     <mergeCell ref="A218:A232"/>
     <mergeCell ref="B218:B232"/>
     <mergeCell ref="C218:C232"/>
@@ -6812,83 +6829,66 @@
     <mergeCell ref="B204:B206"/>
     <mergeCell ref="C204:C206"/>
     <mergeCell ref="E204:E206"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="E146:E151"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="E68:E73"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A244:A249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="E244:E249"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="C233:C237"/>
+    <mergeCell ref="E233:E237"/>
+    <mergeCell ref="A238:A243"/>
+    <mergeCell ref="B238:B243"/>
+    <mergeCell ref="C238:C243"/>
+    <mergeCell ref="E238:E243"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="E269:E271"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="E265:E268"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="E279:E281"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="E274:E278"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="E287:E291"/>
+    <mergeCell ref="A292:A296"/>
+    <mergeCell ref="B292:B296"/>
+    <mergeCell ref="C292:C296"/>
+    <mergeCell ref="E292:E296"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="A342:A346"/>
+    <mergeCell ref="B342:B346"/>
+    <mergeCell ref="C342:C346"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="E299:E302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -6897,2215 +6897,1616 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>322</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>334</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>358</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B109" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B110" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B112" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B117" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B118" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B119" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B120" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B121" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>420</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B123" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B125" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>435</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B128" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B129" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B130" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B131" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B132" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B136" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B137" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B139" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>523</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B141" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B142" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B143" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>313</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B146" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B147" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>546</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>549</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B150" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B151" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B152" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B153" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B154" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B155" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B157" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B159" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B160" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B161" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B162" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B163" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B164" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B165" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B167" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B169" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B170" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B171" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B172" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B173" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B174" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B175" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B176" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B177" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B179" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="B180" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B181" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B182" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B183" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B184" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B185" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B186" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B187" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B188" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B189" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B190" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>194</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>225</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>228</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>242</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>248</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>254</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>259</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C78" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>266</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>276</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C81" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>279</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>282</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C83" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>285</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>288</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>294</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>300</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>303</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C90" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>306</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C91" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>309</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>311</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>314</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C94" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>317</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C95" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C97" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>326</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>329</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>332</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C100" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>335</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>338</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C102" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C103" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>349</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C104" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>356</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C105" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>359</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C106" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>362</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C107" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>365</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C108" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>368</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C109" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>377</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C110" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>385</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C111" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>388</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>391</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C113" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>394</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C114" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>397</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C115" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>400</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C116" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>403</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>405</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C118" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>408</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C119" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>411</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C120" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>415</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C121" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>418</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C122" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>421</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C123" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>424</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C124" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>427</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C125" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>430</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C126" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>433</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C127" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>436</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C128" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>439</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C129" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>445</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>449</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C131" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>456</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C132" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>461</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C133" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>464</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>475</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>492</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="C136" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>499</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="C137" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>507</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C138" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>515</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C139" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>521</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C140" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>524</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="C141" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>527</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C142" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>530</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="C143" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>533</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C144" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>535</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="C145" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>538</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="C146" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>541</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="C147" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>544</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C148" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>547</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C149" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>550</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C150" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>553</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C151" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>559</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="C152" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>564</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C153" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>568</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C154" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>575</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C155" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>580</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>586</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="C157" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>589</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>596</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C159" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>603</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="C160" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>606</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="C161" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>609</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C162" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>615</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="C163" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>618</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="C164" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>621</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="C165" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>624</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="C166" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>627</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C167" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>630</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="C168" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>633</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="C169" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>636</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="C170" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>639</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="C171" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>642</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C172" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>645</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="C173" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>648</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="C174" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>651</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="C175" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>654</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="C176" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>657</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="C177" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>660</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>666</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="C179" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>669</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C180" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>672</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C181" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>675</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="C182" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>678</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="C183" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>681</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="C184" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>684</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="C185" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>687</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="C186" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>690</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="C187" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>693</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="C188" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>696</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="C189" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>699</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="C190" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>701</v>
-      </c>
-      <c r="B191" s="15" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B191" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>704</v>
-      </c>
-      <c r="B192" s="15" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B192" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>707</v>
-      </c>
-      <c r="B193" s="15" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B193" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>710</v>
-      </c>
-      <c r="B194" s="15" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="C194" t="s">
+      <c r="B194" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>713</v>
-      </c>
-      <c r="B195" s="15" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B195" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>716</v>
-      </c>
-      <c r="B196" s="15" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B196" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>719</v>
-      </c>
-      <c r="B197" s="15" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B197" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>722</v>
-      </c>
-      <c r="B198" s="15" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B198" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>725</v>
-      </c>
-      <c r="B199" s="15" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C199" t="s">
+      <c r="B199" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>732</v>
-      </c>
-      <c r="B200" s="15" t="s">
+    <row r="200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C200" t="s">
+      <c r="B200" t="s">
         <v>734</v>
       </c>
     </row>
